--- a/Code/Results/Cases/Case_0_121/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_121/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.003395435073588</v>
+        <v>1.03739799725335</v>
       </c>
       <c r="D2">
-        <v>1.011737398369797</v>
+        <v>1.040042358767425</v>
       </c>
       <c r="E2">
-        <v>1.017538014015386</v>
+        <v>1.045425107642324</v>
       </c>
       <c r="F2">
-        <v>1.024343075866995</v>
+        <v>1.054492432429486</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045205399683004</v>
+        <v>1.035492039141551</v>
       </c>
       <c r="J2">
-        <v>1.025475061389294</v>
+        <v>1.042501087052323</v>
       </c>
       <c r="K2">
-        <v>1.02303559905244</v>
+        <v>1.042825830249702</v>
       </c>
       <c r="L2">
-        <v>1.028758306101468</v>
+        <v>1.048193384254906</v>
       </c>
       <c r="M2">
-        <v>1.035473378458523</v>
+        <v>1.05723549321273</v>
       </c>
       <c r="N2">
-        <v>1.026931353600101</v>
+        <v>1.043981558172484</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008205873190325</v>
+        <v>1.038416890594237</v>
       </c>
       <c r="D3">
-        <v>1.015908730148542</v>
+        <v>1.040975615978251</v>
       </c>
       <c r="E3">
-        <v>1.021590340423312</v>
+        <v>1.046335954595482</v>
       </c>
       <c r="F3">
-        <v>1.028806438667401</v>
+        <v>1.055499945939038</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046233354498661</v>
+        <v>1.035641983404008</v>
       </c>
       <c r="J3">
-        <v>1.028475310300988</v>
+        <v>1.043163994072834</v>
       </c>
       <c r="K3">
-        <v>1.026342023269116</v>
+        <v>1.043569106176456</v>
       </c>
       <c r="L3">
-        <v>1.031954225193244</v>
+        <v>1.048915410179594</v>
       </c>
       <c r="M3">
-        <v>1.039083539793423</v>
+        <v>1.058055764217448</v>
       </c>
       <c r="N3">
-        <v>1.029935863209382</v>
+        <v>1.044645406597001</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011253016717596</v>
+        <v>1.039076488622205</v>
       </c>
       <c r="D4">
-        <v>1.018556158572763</v>
+        <v>1.041580070794917</v>
       </c>
       <c r="E4">
-        <v>1.024163235553488</v>
+        <v>1.046925965896413</v>
       </c>
       <c r="F4">
-        <v>1.031639990146955</v>
+        <v>1.056152582956061</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046873134162272</v>
+        <v>1.035737620874194</v>
       </c>
       <c r="J4">
-        <v>1.030373184609482</v>
+        <v>1.043592657789618</v>
       </c>
       <c r="K4">
-        <v>1.028435669119083</v>
+        <v>1.044050005489704</v>
       </c>
       <c r="L4">
-        <v>1.033978522663538</v>
+        <v>1.049382610373087</v>
       </c>
       <c r="M4">
-        <v>1.041370975717357</v>
+        <v>1.058586629840716</v>
       </c>
       <c r="N4">
-        <v>1.031836432717084</v>
+        <v>1.04507467906543</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01251893215183</v>
+        <v>1.039353856464087</v>
       </c>
       <c r="D5">
-        <v>1.019657201584202</v>
+        <v>1.041834320399949</v>
       </c>
       <c r="E5">
-        <v>1.02523351402995</v>
+        <v>1.047174157149689</v>
       </c>
       <c r="F5">
-        <v>1.032818627548509</v>
+        <v>1.056427120269508</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047136154060821</v>
+        <v>1.035777494544909</v>
       </c>
       <c r="J5">
-        <v>1.031160977442391</v>
+        <v>1.043772800000639</v>
       </c>
       <c r="K5">
-        <v>1.029305230464853</v>
+        <v>1.044252162907254</v>
       </c>
       <c r="L5">
-        <v>1.034819428679033</v>
+        <v>1.049579020896009</v>
       </c>
       <c r="M5">
-        <v>1.042321373473378</v>
+        <v>1.058809827808281</v>
       </c>
       <c r="N5">
-        <v>1.032625344306176</v>
+        <v>1.045255077099053</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012730615665018</v>
+        <v>1.039400432004439</v>
       </c>
       <c r="D6">
-        <v>1.019841384051621</v>
+        <v>1.041877018024588</v>
       </c>
       <c r="E6">
-        <v>1.025412563752954</v>
+        <v>1.047215838352628</v>
       </c>
       <c r="F6">
-        <v>1.03301580103567</v>
+        <v>1.056473226160184</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047179971424195</v>
+        <v>1.035784170010782</v>
       </c>
       <c r="J6">
-        <v>1.031292670096386</v>
+        <v>1.043803042663639</v>
       </c>
       <c r="K6">
-        <v>1.029450621879748</v>
+        <v>1.044286105264727</v>
       </c>
       <c r="L6">
-        <v>1.034960037496485</v>
+        <v>1.0496119990407</v>
       </c>
       <c r="M6">
-        <v>1.042480301267645</v>
+        <v>1.058847304999886</v>
       </c>
       <c r="N6">
-        <v>1.032757223978845</v>
+        <v>1.045285362710104</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011269990536896</v>
+        <v>1.039080194539202</v>
       </c>
       <c r="D7">
-        <v>1.018570917094319</v>
+        <v>1.041583467554121</v>
       </c>
       <c r="E7">
-        <v>1.024177580789622</v>
+        <v>1.04692928164984</v>
       </c>
       <c r="F7">
-        <v>1.031655788012918</v>
+        <v>1.056156250675261</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046876671831282</v>
+        <v>1.035738154974418</v>
       </c>
       <c r="J7">
-        <v>1.03038375028343</v>
+        <v>1.043595065126707</v>
       </c>
       <c r="K7">
-        <v>1.028447329450203</v>
+        <v>1.044052706777613</v>
       </c>
       <c r="L7">
-        <v>1.033989798163367</v>
+        <v>1.04938523482272</v>
       </c>
       <c r="M7">
-        <v>1.041383718643234</v>
+        <v>1.058589612137189</v>
       </c>
       <c r="N7">
-        <v>1.031847013395501</v>
+        <v>1.045077089821214</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005035075899915</v>
+        <v>1.037742273445193</v>
       </c>
       <c r="D8">
-        <v>1.013158097941566</v>
+        <v>1.04035763784025</v>
       </c>
       <c r="E8">
-        <v>1.018917969634651</v>
+        <v>1.045732801148134</v>
       </c>
       <c r="F8">
-        <v>1.025863074292404</v>
+        <v>1.054832779126246</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045558137568589</v>
+        <v>1.035543000353892</v>
       </c>
       <c r="J8">
-        <v>1.026498222717472</v>
+        <v>1.042725177478257</v>
       </c>
       <c r="K8">
-        <v>1.024162736090318</v>
+        <v>1.043077033740188</v>
       </c>
       <c r="L8">
-        <v>1.029847640253965</v>
+        <v>1.048437395632903</v>
       </c>
       <c r="M8">
-        <v>1.036703749289723</v>
+        <v>1.057512687405536</v>
       </c>
       <c r="N8">
-        <v>1.027955967934723</v>
+        <v>1.044205966832526</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9935185364095799</v>
+        <v>1.035387045983139</v>
       </c>
       <c r="D9">
-        <v>1.003202996037778</v>
+        <v>1.038202010616398</v>
       </c>
       <c r="E9">
-        <v>1.009252839809196</v>
+        <v>1.043629332710534</v>
       </c>
       <c r="F9">
-        <v>1.015215455566248</v>
+        <v>1.052506117483824</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043034069483239</v>
+        <v>1.035188511350434</v>
       </c>
       <c r="J9">
-        <v>1.019302266420867</v>
+        <v>1.041190196577821</v>
       </c>
       <c r="K9">
-        <v>1.016244319741393</v>
+        <v>1.041357421845094</v>
       </c>
       <c r="L9">
-        <v>1.02219755895354</v>
+        <v>1.046767221845218</v>
       </c>
       <c r="M9">
-        <v>1.028066403488311</v>
+        <v>1.055615773932045</v>
       </c>
       <c r="N9">
-        <v>1.020749792554789</v>
+        <v>1.042668806083146</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.985442826242903</v>
+        <v>1.033818502765769</v>
       </c>
       <c r="D10">
-        <v>0.9962544777952442</v>
+        <v>1.036767960942178</v>
       </c>
       <c r="E10">
-        <v>1.002512702644646</v>
+        <v>1.04223035531598</v>
       </c>
       <c r="F10">
-        <v>1.007787749842026</v>
+        <v>1.050958734188874</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04120703003703</v>
+        <v>1.034945080151191</v>
       </c>
       <c r="J10">
-        <v>1.014246153901074</v>
+        <v>1.040165481606809</v>
       </c>
       <c r="K10">
-        <v>1.010691689717492</v>
+        <v>1.040210817924699</v>
       </c>
       <c r="L10">
-        <v>1.01683673718949</v>
+        <v>1.045653840264502</v>
       </c>
       <c r="M10">
-        <v>1.022017803426792</v>
+        <v>1.054351724743134</v>
       </c>
       <c r="N10">
-        <v>1.015686499775273</v>
+        <v>1.041642635899339</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9818413486685723</v>
+        <v>1.033139691484185</v>
       </c>
       <c r="D11">
-        <v>0.9931641081039803</v>
+        <v>1.036147731309878</v>
       </c>
       <c r="E11">
-        <v>0.9995165371170835</v>
+        <v>1.041625384090438</v>
       </c>
       <c r="F11">
-        <v>1.004485256554561</v>
+        <v>1.05028959363901</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04037936789693</v>
+        <v>1.034837991100663</v>
       </c>
       <c r="J11">
-        <v>1.011989558568799</v>
+        <v>1.039721445159279</v>
       </c>
       <c r="K11">
-        <v>1.008216101103086</v>
+        <v>1.03971428728705</v>
       </c>
       <c r="L11">
-        <v>1.014447576602717</v>
+        <v>1.045171757925326</v>
       </c>
       <c r="M11">
-        <v>1.019323080322007</v>
+        <v>1.053804519279505</v>
       </c>
       <c r="N11">
-        <v>1.013426699818791</v>
+        <v>1.041197968869122</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9804869327145267</v>
+        <v>1.032887607791049</v>
       </c>
       <c r="D12">
-        <v>0.9920032402039168</v>
+        <v>1.035917459812632</v>
       </c>
       <c r="E12">
-        <v>0.9983912951682745</v>
+        <v>1.041400791099917</v>
       </c>
       <c r="F12">
-        <v>1.00324485685905</v>
+        <v>1.050041179001774</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040066234008227</v>
+        <v>1.034797961129166</v>
       </c>
       <c r="J12">
-        <v>1.01114071097836</v>
+        <v>1.039556461475485</v>
       </c>
       <c r="K12">
-        <v>1.007285266060927</v>
+        <v>1.039529847737588</v>
       </c>
       <c r="L12">
-        <v>1.013549380457729</v>
+        <v>1.044992694568289</v>
       </c>
       <c r="M12">
-        <v>1.018310153458702</v>
+        <v>1.053601283928883</v>
       </c>
       <c r="N12">
-        <v>1.01257664676741</v>
+        <v>1.041032750889573</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9807782297228779</v>
+        <v>1.032941678014334</v>
       </c>
       <c r="D13">
-        <v>0.9922528489879791</v>
+        <v>1.035966848867973</v>
       </c>
       <c r="E13">
-        <v>0.9986332327267365</v>
+        <v>1.041448961604177</v>
       </c>
       <c r="F13">
-        <v>1.003511559687777</v>
+        <v>1.050094458710843</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040133663978029</v>
+        <v>1.034806559107066</v>
       </c>
       <c r="J13">
-        <v>1.011323282637841</v>
+        <v>1.039591853234629</v>
       </c>
       <c r="K13">
-        <v>1.007485454154296</v>
+        <v>1.039569410907478</v>
       </c>
       <c r="L13">
-        <v>1.013742542667925</v>
+        <v>1.045031104098732</v>
       </c>
       <c r="M13">
-        <v>1.018527982637366</v>
+        <v>1.053644877634961</v>
       </c>
       <c r="N13">
-        <v>1.012759477699589</v>
+        <v>1.041068192909074</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9817297379454701</v>
+        <v>1.033118853002633</v>
       </c>
       <c r="D14">
-        <v>0.9930684191854198</v>
+        <v>1.036128694760048</v>
       </c>
       <c r="E14">
-        <v>0.9994237798838245</v>
+        <v>1.041606816705981</v>
       </c>
       <c r="F14">
-        <v>1.004383008864589</v>
+        <v>1.050269056870583</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040353601787759</v>
+        <v>1.034834687356265</v>
       </c>
       <c r="J14">
-        <v>1.011919613045571</v>
+        <v>1.039707808548538</v>
       </c>
       <c r="K14">
-        <v>1.00813939185978</v>
+        <v>1.03969904157461</v>
       </c>
       <c r="L14">
-        <v>1.014373554198259</v>
+        <v>1.045156956417743</v>
       </c>
       <c r="M14">
-        <v>1.019239599759933</v>
+        <v>1.053787719347277</v>
       </c>
       <c r="N14">
-        <v>1.013356654964897</v>
+        <v>1.04118431289283</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9823137555429908</v>
+        <v>1.033228023925227</v>
       </c>
       <c r="D15">
-        <v>0.9935691786785792</v>
+        <v>1.03622842787469</v>
       </c>
       <c r="E15">
-        <v>0.999909207079589</v>
+        <v>1.041704092403102</v>
       </c>
       <c r="F15">
-        <v>1.00491809787425</v>
+        <v>1.050376650332286</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040488350336909</v>
+        <v>1.034851984672712</v>
       </c>
       <c r="J15">
-        <v>1.012285604093832</v>
+        <v>1.039779245996591</v>
       </c>
       <c r="K15">
-        <v>1.008540790046799</v>
+        <v>1.039778910534366</v>
       </c>
       <c r="L15">
-        <v>1.01476089869608</v>
+        <v>1.045234498665328</v>
       </c>
       <c r="M15">
-        <v>1.019676442798486</v>
+        <v>1.053875731659482</v>
       </c>
       <c r="N15">
-        <v>1.013723165762427</v>
+        <v>1.041255851790253</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9856795606795079</v>
+        <v>1.033863561222562</v>
       </c>
       <c r="D16">
-        <v>0.9964577968825885</v>
+        <v>1.036809138842445</v>
       </c>
       <c r="E16">
-        <v>1.002709856550187</v>
+        <v>1.042270522085239</v>
       </c>
       <c r="F16">
-        <v>1.008005045612945</v>
+        <v>1.051003161587671</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041261171501893</v>
+        <v>1.034952151894851</v>
       </c>
       <c r="J16">
-        <v>1.014394454162563</v>
+        <v>1.040194943974805</v>
       </c>
       <c r="K16">
-        <v>1.010854436011978</v>
+        <v>1.040243770159594</v>
       </c>
       <c r="L16">
-        <v>1.016993821028421</v>
+        <v>1.045685834937961</v>
       </c>
       <c r="M16">
-        <v>1.022194997561669</v>
+        <v>1.054388043893295</v>
       </c>
       <c r="N16">
-        <v>1.015835010640144</v>
+        <v>1.041672140107277</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9877621803950636</v>
+        <v>1.034262318401207</v>
       </c>
       <c r="D17">
-        <v>0.9982474180821892</v>
+        <v>1.037173597664266</v>
       </c>
       <c r="E17">
-        <v>1.004445386571653</v>
+        <v>1.04262604191751</v>
       </c>
       <c r="F17">
-        <v>1.009917803550044</v>
+        <v>1.051396393450924</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041736012793296</v>
+        <v>1.035014534132605</v>
       </c>
       <c r="J17">
-        <v>1.015698901193085</v>
+        <v>1.04045561285635</v>
       </c>
       <c r="K17">
-        <v>1.012286246347184</v>
+        <v>1.040535353067043</v>
       </c>
       <c r="L17">
-        <v>1.018375918437477</v>
+        <v>1.045968951829335</v>
       </c>
       <c r="M17">
-        <v>1.023754144029559</v>
+        <v>1.054709440749118</v>
       </c>
       <c r="N17">
-        <v>1.017141310135071</v>
+        <v>1.041933179168534</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9889669083820322</v>
+        <v>1.034494943201634</v>
       </c>
       <c r="D18">
-        <v>0.9992834494215034</v>
+        <v>1.037386250071668</v>
       </c>
       <c r="E18">
-        <v>1.005450248175296</v>
+        <v>1.042833487295002</v>
       </c>
       <c r="F18">
-        <v>1.011025214620331</v>
+        <v>1.051625844440122</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042009469136498</v>
+        <v>1.035050758351142</v>
       </c>
       <c r="J18">
-        <v>1.016453311606873</v>
+        <v>1.040607624912848</v>
       </c>
       <c r="K18">
-        <v>1.013114562935177</v>
+        <v>1.04070542420032</v>
       </c>
       <c r="L18">
-        <v>1.01917556177282</v>
+        <v>1.046134090937545</v>
       </c>
       <c r="M18">
-        <v>1.024656314082828</v>
+        <v>1.054896919191983</v>
       </c>
       <c r="N18">
-        <v>1.01789679189818</v>
+        <v>1.042085407099587</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9893760159767021</v>
+        <v>1.034574268429158</v>
       </c>
       <c r="D19">
-        <v>0.9996354027562081</v>
+        <v>1.037458770854546</v>
       </c>
       <c r="E19">
-        <v>1.005791636931311</v>
+        <v>1.042904233789223</v>
       </c>
       <c r="F19">
-        <v>1.011401432594937</v>
+        <v>1.051704095776741</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042102121452928</v>
+        <v>1.035063082337064</v>
       </c>
       <c r="J19">
-        <v>1.01670946758436</v>
+        <v>1.040659451704548</v>
       </c>
       <c r="K19">
-        <v>1.013395855353455</v>
+        <v>1.040763413324229</v>
       </c>
       <c r="L19">
-        <v>1.019447131379516</v>
+        <v>1.046190399395589</v>
       </c>
       <c r="M19">
-        <v>1.024962718578027</v>
+        <v>1.054960846696996</v>
       </c>
       <c r="N19">
-        <v>1.018153311646536</v>
+        <v>1.042137307491276</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9875397789462501</v>
+        <v>1.034219531754375</v>
       </c>
       <c r="D20">
-        <v>0.9980562229142762</v>
+        <v>1.037134487462726</v>
       </c>
       <c r="E20">
-        <v>1.004259955234362</v>
+        <v>1.042587890067598</v>
       </c>
       <c r="F20">
-        <v>1.009713443191095</v>
+        <v>1.051354194544733</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041685431420344</v>
+        <v>1.035007857892391</v>
       </c>
       <c r="J20">
-        <v>1.015559617465729</v>
+        <v>1.04042764882656</v>
       </c>
       <c r="K20">
-        <v>1.0121333376265</v>
+        <v>1.04050406941523</v>
       </c>
       <c r="L20">
-        <v>1.018228309785929</v>
+        <v>1.045938575874122</v>
       </c>
       <c r="M20">
-        <v>1.023587617009907</v>
+        <v>1.05467495654888</v>
       </c>
       <c r="N20">
-        <v>1.017001828608846</v>
+        <v>1.041905175426614</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.981450010533735</v>
+        <v>1.033066677808245</v>
       </c>
       <c r="D21">
-        <v>0.9928286179671107</v>
+        <v>1.03608103215278</v>
       </c>
       <c r="E21">
-        <v>0.999191329501279</v>
+        <v>1.041560328986877</v>
       </c>
       <c r="F21">
-        <v>1.004126773463182</v>
+        <v>1.050217638360392</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040288994817372</v>
+        <v>1.034826411250829</v>
       </c>
       <c r="J21">
-        <v>1.011744307083644</v>
+        <v>1.039673663941009</v>
       </c>
       <c r="K21">
-        <v>1.00794714011111</v>
+        <v>1.039660868734</v>
       </c>
       <c r="L21">
-        <v>1.014188038606241</v>
+        <v>1.045119895945466</v>
       </c>
       <c r="M21">
-        <v>1.019030382377835</v>
+        <v>1.053745655434801</v>
       </c>
       <c r="N21">
-        <v>1.013181100048397</v>
+        <v>1.041150119796042</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9775241798851841</v>
+        <v>1.032342162903357</v>
       </c>
       <c r="D22">
-        <v>0.9894664041848177</v>
+        <v>1.035419316327604</v>
       </c>
       <c r="E22">
-        <v>0.9959327631121077</v>
+        <v>1.040914956723012</v>
       </c>
       <c r="F22">
-        <v>1.000534498210848</v>
+        <v>1.0495038157813</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039377884521791</v>
+        <v>1.034710868807093</v>
       </c>
       <c r="J22">
-        <v>1.009283567800387</v>
+        <v>1.039199321769424</v>
       </c>
       <c r="K22">
-        <v>1.00524946218188</v>
+        <v>1.039130680791323</v>
       </c>
       <c r="L22">
-        <v>1.011585225654248</v>
+        <v>1.044605179861464</v>
       </c>
       <c r="M22">
-        <v>1.01609537401849</v>
+        <v>1.053161489480898</v>
       </c>
       <c r="N22">
-        <v>1.010716866233107</v>
+        <v>1.040675104004165</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9796148619432862</v>
+        <v>1.032726210599705</v>
       </c>
       <c r="D23">
-        <v>0.9912561747450381</v>
+        <v>1.035770044129192</v>
       </c>
       <c r="E23">
-        <v>0.9976672250864698</v>
+        <v>1.041257014519139</v>
       </c>
       <c r="F23">
-        <v>1.002446651973447</v>
+        <v>1.049882152886022</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039864095739384</v>
+        <v>1.034772258298006</v>
       </c>
       <c r="J23">
-        <v>1.010594111529541</v>
+        <v>1.039450806081833</v>
       </c>
       <c r="K23">
-        <v>1.006685981911304</v>
+        <v>1.039411746498472</v>
       </c>
       <c r="L23">
-        <v>1.012971150124747</v>
+        <v>1.044878038454755</v>
       </c>
       <c r="M23">
-        <v>1.017658103831999</v>
+        <v>1.053471155068371</v>
       </c>
       <c r="N23">
-        <v>1.012029271084678</v>
+        <v>1.040926945453143</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9876403035106974</v>
+        <v>1.034238865085522</v>
       </c>
       <c r="D24">
-        <v>0.9981426399092158</v>
+        <v>1.037152159463837</v>
       </c>
       <c r="E24">
-        <v>1.004343766628535</v>
+        <v>1.042605129009457</v>
       </c>
       <c r="F24">
-        <v>1.009805810337618</v>
+        <v>1.051373262149844</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041708297798521</v>
+        <v>1.035010875099412</v>
       </c>
       <c r="J24">
-        <v>1.015622573684128</v>
+        <v>1.040440284665835</v>
       </c>
       <c r="K24">
-        <v>1.012202451572417</v>
+        <v>1.040518205164</v>
       </c>
       <c r="L24">
-        <v>1.018295027861296</v>
+        <v>1.045952301455155</v>
       </c>
       <c r="M24">
-        <v>1.023662885772728</v>
+        <v>1.054690538434152</v>
       </c>
       <c r="N24">
-        <v>1.017064874232297</v>
+        <v>1.041917829210229</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9965627491238189</v>
+        <v>1.035995646820954</v>
       </c>
       <c r="D25">
-        <v>1.00582915162581</v>
+        <v>1.038758760551486</v>
       </c>
       <c r="E25">
-        <v>1.011801501385622</v>
+        <v>1.044172545716439</v>
       </c>
       <c r="F25">
-        <v>1.018023576836159</v>
+        <v>1.053106962532558</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043711308967285</v>
+        <v>1.035281409261988</v>
       </c>
       <c r="J25">
-        <v>1.021206346778053</v>
+        <v>1.041587274353735</v>
       </c>
       <c r="K25">
-        <v>1.018337646486306</v>
+        <v>1.041802020231986</v>
       </c>
       <c r="L25">
-        <v>1.024219335532825</v>
+        <v>1.047198992871349</v>
       </c>
       <c r="M25">
-        <v>1.030348397637386</v>
+        <v>1.056106076173236</v>
       </c>
       <c r="N25">
-        <v>1.022656576924483</v>
+        <v>1.043066447755047</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_121/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_121/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03739799725335</v>
+        <v>1.003395435073588</v>
       </c>
       <c r="D2">
-        <v>1.040042358767425</v>
+        <v>1.011737398369798</v>
       </c>
       <c r="E2">
-        <v>1.045425107642324</v>
+        <v>1.017538014015386</v>
       </c>
       <c r="F2">
-        <v>1.054492432429486</v>
+        <v>1.024343075866996</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035492039141551</v>
+        <v>1.045205399683004</v>
       </c>
       <c r="J2">
-        <v>1.042501087052323</v>
+        <v>1.025475061389294</v>
       </c>
       <c r="K2">
-        <v>1.042825830249702</v>
+        <v>1.02303559905244</v>
       </c>
       <c r="L2">
-        <v>1.048193384254906</v>
+        <v>1.028758306101468</v>
       </c>
       <c r="M2">
-        <v>1.05723549321273</v>
+        <v>1.035473378458523</v>
       </c>
       <c r="N2">
-        <v>1.043981558172484</v>
+        <v>1.026931353600101</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038416890594237</v>
+        <v>1.008205873190326</v>
       </c>
       <c r="D3">
-        <v>1.040975615978251</v>
+        <v>1.015908730148543</v>
       </c>
       <c r="E3">
-        <v>1.046335954595482</v>
+        <v>1.021590340423313</v>
       </c>
       <c r="F3">
-        <v>1.055499945939038</v>
+        <v>1.028806438667401</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035641983404008</v>
+        <v>1.046233354498661</v>
       </c>
       <c r="J3">
-        <v>1.043163994072834</v>
+        <v>1.028475310300988</v>
       </c>
       <c r="K3">
-        <v>1.043569106176456</v>
+        <v>1.026342023269116</v>
       </c>
       <c r="L3">
-        <v>1.048915410179594</v>
+        <v>1.031954225193245</v>
       </c>
       <c r="M3">
-        <v>1.058055764217448</v>
+        <v>1.039083539793423</v>
       </c>
       <c r="N3">
-        <v>1.044645406597001</v>
+        <v>1.029935863209383</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039076488622205</v>
+        <v>1.011253016717596</v>
       </c>
       <c r="D4">
-        <v>1.041580070794917</v>
+        <v>1.018556158572763</v>
       </c>
       <c r="E4">
-        <v>1.046925965896413</v>
+        <v>1.024163235553488</v>
       </c>
       <c r="F4">
-        <v>1.056152582956061</v>
+        <v>1.031639990146956</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035737620874194</v>
+        <v>1.046873134162272</v>
       </c>
       <c r="J4">
-        <v>1.043592657789618</v>
+        <v>1.030373184609482</v>
       </c>
       <c r="K4">
-        <v>1.044050005489704</v>
+        <v>1.028435669119083</v>
       </c>
       <c r="L4">
-        <v>1.049382610373087</v>
+        <v>1.033978522663538</v>
       </c>
       <c r="M4">
-        <v>1.058586629840716</v>
+        <v>1.041370975717357</v>
       </c>
       <c r="N4">
-        <v>1.04507467906543</v>
+        <v>1.031836432717084</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039353856464087</v>
+        <v>1.012518932151829</v>
       </c>
       <c r="D5">
-        <v>1.041834320399949</v>
+        <v>1.019657201584202</v>
       </c>
       <c r="E5">
-        <v>1.047174157149689</v>
+        <v>1.02523351402995</v>
       </c>
       <c r="F5">
-        <v>1.056427120269508</v>
+        <v>1.032818627548509</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035777494544909</v>
+        <v>1.04713615406082</v>
       </c>
       <c r="J5">
-        <v>1.043772800000639</v>
+        <v>1.03116097744239</v>
       </c>
       <c r="K5">
-        <v>1.044252162907254</v>
+        <v>1.029305230464853</v>
       </c>
       <c r="L5">
-        <v>1.049579020896009</v>
+        <v>1.034819428679033</v>
       </c>
       <c r="M5">
-        <v>1.058809827808281</v>
+        <v>1.042321373473378</v>
       </c>
       <c r="N5">
-        <v>1.045255077099053</v>
+        <v>1.032625344306176</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039400432004439</v>
+        <v>1.012730615665017</v>
       </c>
       <c r="D6">
-        <v>1.041877018024588</v>
+        <v>1.01984138405162</v>
       </c>
       <c r="E6">
-        <v>1.047215838352628</v>
+        <v>1.025412563752952</v>
       </c>
       <c r="F6">
-        <v>1.056473226160184</v>
+        <v>1.033015801035668</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035784170010782</v>
+        <v>1.047179971424194</v>
       </c>
       <c r="J6">
-        <v>1.043803042663639</v>
+        <v>1.031292670096384</v>
       </c>
       <c r="K6">
-        <v>1.044286105264727</v>
+        <v>1.029450621879746</v>
       </c>
       <c r="L6">
-        <v>1.0496119990407</v>
+        <v>1.034960037496483</v>
       </c>
       <c r="M6">
-        <v>1.058847304999886</v>
+        <v>1.042480301267643</v>
       </c>
       <c r="N6">
-        <v>1.045285362710104</v>
+        <v>1.032757223978843</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039080194539202</v>
+        <v>1.011269990536896</v>
       </c>
       <c r="D7">
-        <v>1.041583467554121</v>
+        <v>1.018570917094319</v>
       </c>
       <c r="E7">
-        <v>1.04692928164984</v>
+        <v>1.024177580789622</v>
       </c>
       <c r="F7">
-        <v>1.056156250675261</v>
+        <v>1.031655788012918</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035738154974418</v>
+        <v>1.046876671831282</v>
       </c>
       <c r="J7">
-        <v>1.043595065126707</v>
+        <v>1.03038375028343</v>
       </c>
       <c r="K7">
-        <v>1.044052706777613</v>
+        <v>1.028447329450202</v>
       </c>
       <c r="L7">
-        <v>1.04938523482272</v>
+        <v>1.033989798163367</v>
       </c>
       <c r="M7">
-        <v>1.058589612137189</v>
+        <v>1.041383718643234</v>
       </c>
       <c r="N7">
-        <v>1.045077089821214</v>
+        <v>1.0318470133955</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037742273445193</v>
+        <v>1.005035075899915</v>
       </c>
       <c r="D8">
-        <v>1.04035763784025</v>
+        <v>1.013158097941566</v>
       </c>
       <c r="E8">
-        <v>1.045732801148134</v>
+        <v>1.018917969634651</v>
       </c>
       <c r="F8">
-        <v>1.054832779126246</v>
+        <v>1.025863074292404</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035543000353892</v>
+        <v>1.045558137568589</v>
       </c>
       <c r="J8">
-        <v>1.042725177478257</v>
+        <v>1.026498222717472</v>
       </c>
       <c r="K8">
-        <v>1.043077033740188</v>
+        <v>1.024162736090318</v>
       </c>
       <c r="L8">
-        <v>1.048437395632903</v>
+        <v>1.029847640253965</v>
       </c>
       <c r="M8">
-        <v>1.057512687405536</v>
+        <v>1.036703749289723</v>
       </c>
       <c r="N8">
-        <v>1.044205966832526</v>
+        <v>1.027955967934723</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035387045983139</v>
+        <v>0.9935185364095799</v>
       </c>
       <c r="D9">
-        <v>1.038202010616398</v>
+        <v>1.003202996037779</v>
       </c>
       <c r="E9">
-        <v>1.043629332710534</v>
+        <v>1.009252839809196</v>
       </c>
       <c r="F9">
-        <v>1.052506117483824</v>
+        <v>1.015215455566248</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035188511350434</v>
+        <v>1.043034069483239</v>
       </c>
       <c r="J9">
-        <v>1.041190196577821</v>
+        <v>1.019302266420867</v>
       </c>
       <c r="K9">
-        <v>1.041357421845094</v>
+        <v>1.016244319741393</v>
       </c>
       <c r="L9">
-        <v>1.046767221845218</v>
+        <v>1.02219755895354</v>
       </c>
       <c r="M9">
-        <v>1.055615773932045</v>
+        <v>1.028066403488311</v>
       </c>
       <c r="N9">
-        <v>1.042668806083146</v>
+        <v>1.020749792554789</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.033818502765769</v>
+        <v>0.9854428262429024</v>
       </c>
       <c r="D10">
-        <v>1.036767960942178</v>
+        <v>0.9962544777952433</v>
       </c>
       <c r="E10">
-        <v>1.04223035531598</v>
+        <v>1.002512702644645</v>
       </c>
       <c r="F10">
-        <v>1.050958734188874</v>
+        <v>1.007787749842025</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034945080151191</v>
+        <v>1.041207030037029</v>
       </c>
       <c r="J10">
-        <v>1.040165481606809</v>
+        <v>1.014246153901073</v>
       </c>
       <c r="K10">
-        <v>1.040210817924699</v>
+        <v>1.01069168971749</v>
       </c>
       <c r="L10">
-        <v>1.045653840264502</v>
+        <v>1.016836737189489</v>
       </c>
       <c r="M10">
-        <v>1.054351724743134</v>
+        <v>1.022017803426791</v>
       </c>
       <c r="N10">
-        <v>1.041642635899339</v>
+        <v>1.015686499775272</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033139691484185</v>
+        <v>0.9818413486685722</v>
       </c>
       <c r="D11">
-        <v>1.036147731309878</v>
+        <v>0.9931641081039806</v>
       </c>
       <c r="E11">
-        <v>1.041625384090438</v>
+        <v>0.9995165371170835</v>
       </c>
       <c r="F11">
-        <v>1.05028959363901</v>
+        <v>1.004485256554561</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034837991100663</v>
+        <v>1.04037936789693</v>
       </c>
       <c r="J11">
-        <v>1.039721445159279</v>
+        <v>1.011989558568799</v>
       </c>
       <c r="K11">
-        <v>1.03971428728705</v>
+        <v>1.008216101103086</v>
       </c>
       <c r="L11">
-        <v>1.045171757925326</v>
+        <v>1.014447576602718</v>
       </c>
       <c r="M11">
-        <v>1.053804519279505</v>
+        <v>1.019323080322007</v>
       </c>
       <c r="N11">
-        <v>1.041197968869122</v>
+        <v>1.013426699818791</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032887607791049</v>
+        <v>0.9804869327145259</v>
       </c>
       <c r="D12">
-        <v>1.035917459812632</v>
+        <v>0.9920032402039161</v>
       </c>
       <c r="E12">
-        <v>1.041400791099917</v>
+        <v>0.9983912951682739</v>
       </c>
       <c r="F12">
-        <v>1.050041179001774</v>
+        <v>1.003244856859049</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034797961129166</v>
+        <v>1.040066234008227</v>
       </c>
       <c r="J12">
-        <v>1.039556461475485</v>
+        <v>1.011140710978359</v>
       </c>
       <c r="K12">
-        <v>1.039529847737588</v>
+        <v>1.007285266060926</v>
       </c>
       <c r="L12">
-        <v>1.044992694568289</v>
+        <v>1.013549380457728</v>
       </c>
       <c r="M12">
-        <v>1.053601283928883</v>
+        <v>1.018310153458701</v>
       </c>
       <c r="N12">
-        <v>1.041032750889573</v>
+        <v>1.012576646767409</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032941678014334</v>
+        <v>0.9807782297228785</v>
       </c>
       <c r="D13">
-        <v>1.035966848867973</v>
+        <v>0.9922528489879798</v>
       </c>
       <c r="E13">
-        <v>1.041448961604177</v>
+        <v>0.998633232726737</v>
       </c>
       <c r="F13">
-        <v>1.050094458710843</v>
+        <v>1.003511559687777</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034806559107066</v>
+        <v>1.040133663978029</v>
       </c>
       <c r="J13">
-        <v>1.039591853234629</v>
+        <v>1.011323282637842</v>
       </c>
       <c r="K13">
-        <v>1.039569410907478</v>
+        <v>1.007485454154297</v>
       </c>
       <c r="L13">
-        <v>1.045031104098732</v>
+        <v>1.013742542667925</v>
       </c>
       <c r="M13">
-        <v>1.053644877634961</v>
+        <v>1.018527982637366</v>
       </c>
       <c r="N13">
-        <v>1.041068192909074</v>
+        <v>1.012759477699589</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033118853002633</v>
+        <v>0.9817297379454697</v>
       </c>
       <c r="D14">
-        <v>1.036128694760048</v>
+        <v>0.9930684191854194</v>
       </c>
       <c r="E14">
-        <v>1.041606816705981</v>
+        <v>0.999423779883824</v>
       </c>
       <c r="F14">
-        <v>1.050269056870583</v>
+        <v>1.004383008864589</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034834687356265</v>
+        <v>1.040353601787759</v>
       </c>
       <c r="J14">
-        <v>1.039707808548538</v>
+        <v>1.01191961304557</v>
       </c>
       <c r="K14">
-        <v>1.03969904157461</v>
+        <v>1.00813939185978</v>
       </c>
       <c r="L14">
-        <v>1.045156956417743</v>
+        <v>1.014373554198258</v>
       </c>
       <c r="M14">
-        <v>1.053787719347277</v>
+        <v>1.019239599759933</v>
       </c>
       <c r="N14">
-        <v>1.04118431289283</v>
+        <v>1.013356654964897</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033228023925227</v>
+        <v>0.9823137555429902</v>
       </c>
       <c r="D15">
-        <v>1.03622842787469</v>
+        <v>0.9935691786785785</v>
       </c>
       <c r="E15">
-        <v>1.041704092403102</v>
+        <v>0.9999092070795882</v>
       </c>
       <c r="F15">
-        <v>1.050376650332286</v>
+        <v>1.004918097874249</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034851984672712</v>
+        <v>1.040488350336908</v>
       </c>
       <c r="J15">
-        <v>1.039779245996591</v>
+        <v>1.012285604093831</v>
       </c>
       <c r="K15">
-        <v>1.039778910534366</v>
+        <v>1.008540790046798</v>
       </c>
       <c r="L15">
-        <v>1.045234498665328</v>
+        <v>1.014760898696079</v>
       </c>
       <c r="M15">
-        <v>1.053875731659482</v>
+        <v>1.019676442798485</v>
       </c>
       <c r="N15">
-        <v>1.041255851790253</v>
+        <v>1.013723165762426</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033863561222562</v>
+        <v>0.9856795606795077</v>
       </c>
       <c r="D16">
-        <v>1.036809138842445</v>
+        <v>0.9964577968825883</v>
       </c>
       <c r="E16">
-        <v>1.042270522085239</v>
+        <v>1.002709856550186</v>
       </c>
       <c r="F16">
-        <v>1.051003161587671</v>
+        <v>1.008005045612945</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034952151894851</v>
+        <v>1.041261171501893</v>
       </c>
       <c r="J16">
-        <v>1.040194943974805</v>
+        <v>1.014394454162563</v>
       </c>
       <c r="K16">
-        <v>1.040243770159594</v>
+        <v>1.010854436011978</v>
       </c>
       <c r="L16">
-        <v>1.045685834937961</v>
+        <v>1.016993821028421</v>
       </c>
       <c r="M16">
-        <v>1.054388043893295</v>
+        <v>1.022194997561669</v>
       </c>
       <c r="N16">
-        <v>1.041672140107277</v>
+        <v>1.015835010640144</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034262318401207</v>
+        <v>0.9877621803950634</v>
       </c>
       <c r="D17">
-        <v>1.037173597664266</v>
+        <v>0.9982474180821889</v>
       </c>
       <c r="E17">
-        <v>1.04262604191751</v>
+        <v>1.004445386571653</v>
       </c>
       <c r="F17">
-        <v>1.051396393450924</v>
+        <v>1.009917803550044</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035014534132605</v>
+        <v>1.041736012793296</v>
       </c>
       <c r="J17">
-        <v>1.04045561285635</v>
+        <v>1.015698901193085</v>
       </c>
       <c r="K17">
-        <v>1.040535353067043</v>
+        <v>1.012286246347184</v>
       </c>
       <c r="L17">
-        <v>1.045968951829335</v>
+        <v>1.018375918437477</v>
       </c>
       <c r="M17">
-        <v>1.054709440749118</v>
+        <v>1.023754144029559</v>
       </c>
       <c r="N17">
-        <v>1.041933179168534</v>
+        <v>1.017141310135071</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034494943201634</v>
+        <v>0.9889669083820322</v>
       </c>
       <c r="D18">
-        <v>1.037386250071668</v>
+        <v>0.9992834494215036</v>
       </c>
       <c r="E18">
-        <v>1.042833487295002</v>
+        <v>1.005450248175296</v>
       </c>
       <c r="F18">
-        <v>1.051625844440122</v>
+        <v>1.011025214620331</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035050758351142</v>
+        <v>1.042009469136498</v>
       </c>
       <c r="J18">
-        <v>1.040607624912848</v>
+        <v>1.016453311606873</v>
       </c>
       <c r="K18">
-        <v>1.04070542420032</v>
+        <v>1.013114562935177</v>
       </c>
       <c r="L18">
-        <v>1.046134090937545</v>
+        <v>1.019175561772821</v>
       </c>
       <c r="M18">
-        <v>1.054896919191983</v>
+        <v>1.024656314082828</v>
       </c>
       <c r="N18">
-        <v>1.042085407099587</v>
+        <v>1.01789679189818</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034574268429158</v>
+        <v>0.9893760159767017</v>
       </c>
       <c r="D19">
-        <v>1.037458770854546</v>
+        <v>0.9996354027562075</v>
       </c>
       <c r="E19">
-        <v>1.042904233789223</v>
+        <v>1.005791636931311</v>
       </c>
       <c r="F19">
-        <v>1.051704095776741</v>
+        <v>1.011401432594937</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035063082337064</v>
+        <v>1.042102121452928</v>
       </c>
       <c r="J19">
-        <v>1.040659451704548</v>
+        <v>1.01670946758436</v>
       </c>
       <c r="K19">
-        <v>1.040763413324229</v>
+        <v>1.013395855353454</v>
       </c>
       <c r="L19">
-        <v>1.046190399395589</v>
+        <v>1.019447131379516</v>
       </c>
       <c r="M19">
-        <v>1.054960846696996</v>
+        <v>1.024962718578027</v>
       </c>
       <c r="N19">
-        <v>1.042137307491276</v>
+        <v>1.018153311646535</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034219531754375</v>
+        <v>0.9875397789462508</v>
       </c>
       <c r="D20">
-        <v>1.037134487462726</v>
+        <v>0.9980562229142768</v>
       </c>
       <c r="E20">
-        <v>1.042587890067598</v>
+        <v>1.004259955234362</v>
       </c>
       <c r="F20">
-        <v>1.051354194544733</v>
+        <v>1.009713443191095</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035007857892391</v>
+        <v>1.041685431420344</v>
       </c>
       <c r="J20">
-        <v>1.04042764882656</v>
+        <v>1.015559617465729</v>
       </c>
       <c r="K20">
-        <v>1.04050406941523</v>
+        <v>1.0121333376265</v>
       </c>
       <c r="L20">
-        <v>1.045938575874122</v>
+        <v>1.01822830978593</v>
       </c>
       <c r="M20">
-        <v>1.05467495654888</v>
+        <v>1.023587617009907</v>
       </c>
       <c r="N20">
-        <v>1.041905175426614</v>
+        <v>1.017001828608847</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033066677808245</v>
+        <v>0.9814500105337343</v>
       </c>
       <c r="D21">
-        <v>1.03608103215278</v>
+        <v>0.9928286179671101</v>
       </c>
       <c r="E21">
-        <v>1.041560328986877</v>
+        <v>0.9991913295012783</v>
       </c>
       <c r="F21">
-        <v>1.050217638360392</v>
+        <v>1.004126773463181</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034826411250829</v>
+        <v>1.040288994817372</v>
       </c>
       <c r="J21">
-        <v>1.039673663941009</v>
+        <v>1.011744307083643</v>
       </c>
       <c r="K21">
-        <v>1.039660868734</v>
+        <v>1.007947140111109</v>
       </c>
       <c r="L21">
-        <v>1.045119895945466</v>
+        <v>1.014188038606241</v>
       </c>
       <c r="M21">
-        <v>1.053745655434801</v>
+        <v>1.019030382377835</v>
       </c>
       <c r="N21">
-        <v>1.041150119796042</v>
+        <v>1.013181100048396</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032342162903357</v>
+        <v>0.9775241798851833</v>
       </c>
       <c r="D22">
-        <v>1.035419316327604</v>
+        <v>0.9894664041848169</v>
       </c>
       <c r="E22">
-        <v>1.040914956723012</v>
+        <v>0.9959327631121071</v>
       </c>
       <c r="F22">
-        <v>1.0495038157813</v>
+        <v>1.000534498210848</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034710868807093</v>
+        <v>1.039377884521791</v>
       </c>
       <c r="J22">
-        <v>1.039199321769424</v>
+        <v>1.009283567800387</v>
       </c>
       <c r="K22">
-        <v>1.039130680791323</v>
+        <v>1.005249462181879</v>
       </c>
       <c r="L22">
-        <v>1.044605179861464</v>
+        <v>1.011585225654247</v>
       </c>
       <c r="M22">
-        <v>1.053161489480898</v>
+        <v>1.016095374018489</v>
       </c>
       <c r="N22">
-        <v>1.040675104004165</v>
+        <v>1.010716866233107</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032726210599705</v>
+        <v>0.9796148619432863</v>
       </c>
       <c r="D23">
-        <v>1.035770044129192</v>
+        <v>0.9912561747450381</v>
       </c>
       <c r="E23">
-        <v>1.041257014519139</v>
+        <v>0.9976672250864697</v>
       </c>
       <c r="F23">
-        <v>1.049882152886022</v>
+        <v>1.002446651973446</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034772258298006</v>
+        <v>1.039864095739384</v>
       </c>
       <c r="J23">
-        <v>1.039450806081833</v>
+        <v>1.010594111529541</v>
       </c>
       <c r="K23">
-        <v>1.039411746498472</v>
+        <v>1.006685981911304</v>
       </c>
       <c r="L23">
-        <v>1.044878038454755</v>
+        <v>1.012971150124747</v>
       </c>
       <c r="M23">
-        <v>1.053471155068371</v>
+        <v>1.017658103831999</v>
       </c>
       <c r="N23">
-        <v>1.040926945453143</v>
+        <v>1.012029271084678</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034238865085522</v>
+        <v>0.9876403035106965</v>
       </c>
       <c r="D24">
-        <v>1.037152159463837</v>
+        <v>0.9981426399092148</v>
       </c>
       <c r="E24">
-        <v>1.042605129009457</v>
+        <v>1.004343766628534</v>
       </c>
       <c r="F24">
-        <v>1.051373262149844</v>
+        <v>1.009805810337617</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035010875099412</v>
+        <v>1.041708297798521</v>
       </c>
       <c r="J24">
-        <v>1.040440284665835</v>
+        <v>1.015622573684127</v>
       </c>
       <c r="K24">
-        <v>1.040518205164</v>
+        <v>1.012202451572416</v>
       </c>
       <c r="L24">
-        <v>1.045952301455155</v>
+        <v>1.018295027861295</v>
       </c>
       <c r="M24">
-        <v>1.054690538434152</v>
+        <v>1.023662885772727</v>
       </c>
       <c r="N24">
-        <v>1.041917829210229</v>
+        <v>1.017064874232295</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035995646820954</v>
+        <v>0.996562749123818</v>
       </c>
       <c r="D25">
-        <v>1.038758760551486</v>
+        <v>1.00582915162581</v>
       </c>
       <c r="E25">
-        <v>1.044172545716439</v>
+        <v>1.011801501385621</v>
       </c>
       <c r="F25">
-        <v>1.053106962532558</v>
+        <v>1.018023576836159</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035281409261988</v>
+        <v>1.043711308967285</v>
       </c>
       <c r="J25">
-        <v>1.041587274353735</v>
+        <v>1.021206346778052</v>
       </c>
       <c r="K25">
-        <v>1.041802020231986</v>
+        <v>1.018337646486305</v>
       </c>
       <c r="L25">
-        <v>1.047198992871349</v>
+        <v>1.024219335532824</v>
       </c>
       <c r="M25">
-        <v>1.056106076173236</v>
+        <v>1.030348397637385</v>
       </c>
       <c r="N25">
-        <v>1.043066447755047</v>
+        <v>1.022656576924482</v>
       </c>
     </row>
   </sheetData>
